--- a/DOCS/Batch.xlsx
+++ b/DOCS/Batch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dilet\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anthony\IdeaProjects\PMCSN_cloud\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55FF33BA-2897-4CAD-9AF9-F32A08C94A8C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A264E0C6-0EFA-42FE-96E1-61A88B8D5A48}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Algoritmo1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="407">
   <si>
     <t>E[T]_CLOUDLET</t>
   </si>
@@ -1241,14 +1241,28 @@
   </si>
   <si>
     <t>6,249046 +/- 0,005056</t>
+  </si>
+  <si>
+    <t>Algoritmo1</t>
+  </si>
+  <si>
+    <t>Algoritmo2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1445,7 +1459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1497,6 +1511,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1777,10 +1797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:O62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1794,891 +1814,1666 @@
     <col min="7" max="7" width="29.28515625" style="1" customWidth="1"/>
     <col min="8" max="8" width="22.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="25.42578125" style="1" customWidth="1"/>
-    <col min="10" max="11" width="9.140625" style="1"/>
+    <col min="10" max="10" width="22.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="3">
-        <v>123456789</v>
-      </c>
-      <c r="C1" s="4">
-        <v>987654321</v>
-      </c>
-      <c r="D1" s="4">
-        <v>993727181</v>
-      </c>
-      <c r="E1" s="4">
-        <v>568439202</v>
-      </c>
-      <c r="G1" s="3">
-        <v>349587492</v>
-      </c>
-      <c r="H1" s="4">
-        <v>18765678</v>
-      </c>
-      <c r="I1" s="5">
-        <v>888888888</v>
-      </c>
       <c r="L1" s="1"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
+        <v>405</v>
+      </c>
+      <c r="B2" s="3">
+        <v>123456789</v>
+      </c>
+      <c r="C2" s="4">
+        <v>987654321</v>
+      </c>
+      <c r="D2" s="4">
+        <v>993727181</v>
+      </c>
+      <c r="E2" s="5">
+        <v>568439202</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>405</v>
+      </c>
+      <c r="H2" s="3">
+        <v>349587492</v>
+      </c>
+      <c r="I2" s="4">
+        <v>18765678</v>
+      </c>
+      <c r="J2" s="5">
+        <v>888888888</v>
+      </c>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C3" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D3" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E3" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="H3" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="I3" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="J3" s="11" t="s">
         <v>189</v>
-      </c>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>190</v>
       </c>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>137</v>
+        <v>82</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>191</v>
+        <v>136</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>190</v>
       </c>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>138</v>
+        <v>83</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>192</v>
+        <v>137</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>191</v>
       </c>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>139</v>
+        <v>84</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>3</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>193</v>
+        <v>138</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>192</v>
       </c>
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>140</v>
+        <v>85</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>4</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>194</v>
+        <v>139</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>193</v>
       </c>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>141</v>
+        <v>86</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>195</v>
+        <v>140</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>194</v>
       </c>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>142</v>
+        <v>87</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>196</v>
+        <v>141</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>195</v>
       </c>
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B11" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C11" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D11" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E11" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="H11" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="I11" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="J11" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="14"/>
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="14"/>
+      <c r="A12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>198</v>
+      </c>
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>144</v>
+        <v>91</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="I13" s="14" t="s">
-        <v>198</v>
+        <v>145</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>199</v>
       </c>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>145</v>
+        <v>92</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="I14" s="14" t="s">
-        <v>199</v>
+        <v>146</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>200</v>
       </c>
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>146</v>
+        <v>93</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>200</v>
+        <v>147</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>201</v>
       </c>
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>147</v>
+        <v>94</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="I16" s="14" t="s">
-        <v>201</v>
+        <v>148</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>202</v>
       </c>
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>148</v>
+        <v>95</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F17" s="20"/>
+      <c r="G17" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="I17" s="14" t="s">
-        <v>202</v>
+        <v>149</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>203</v>
       </c>
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>149</v>
+        <v>96</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="I18" s="14" t="s">
-        <v>203</v>
+        <v>150</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>204</v>
       </c>
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>150</v>
+        <v>97</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="I19" s="14" t="s">
-        <v>204</v>
+        <v>151</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>205</v>
       </c>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="I20" s="14" t="s">
-        <v>205</v>
+    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>206</v>
       </c>
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>152</v>
+        <v>99</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="I21" s="14" t="s">
-        <v>206</v>
+        <v>153</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>207</v>
       </c>
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="14"/>
+      <c r="A22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>208</v>
+      </c>
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="14"/>
+      <c r="A23" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>209</v>
+      </c>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>153</v>
+        <v>102</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="I24" s="14" t="s">
-        <v>207</v>
+        <v>156</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>210</v>
       </c>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>154</v>
+        <v>103</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="I25" s="14" t="s">
-        <v>208</v>
+        <v>157</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>211</v>
       </c>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>155</v>
+        <v>104</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="I26" s="14" t="s">
-        <v>209</v>
+        <v>158</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>212</v>
       </c>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>156</v>
+        <v>105</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="I27" s="14" t="s">
-        <v>210</v>
+        <v>159</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>213</v>
       </c>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="J28" s="14" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="I29" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="J29" s="17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="19" t="s">
+        <v>406</v>
+      </c>
+      <c r="B35" s="4">
+        <v>123456789</v>
+      </c>
+      <c r="C35" s="4">
+        <v>987654321</v>
+      </c>
+      <c r="D35" s="4">
+        <v>993727181</v>
+      </c>
+      <c r="E35" s="5">
+        <v>568439202</v>
+      </c>
+      <c r="G35" s="19" t="s">
+        <v>406</v>
+      </c>
+      <c r="H35" s="4">
+        <v>349587492</v>
+      </c>
+      <c r="I35" s="4">
+        <v>18765678</v>
+      </c>
+      <c r="J35" s="5">
+        <v>888888888</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="I36" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="J36" s="14" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="I37" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="J37" s="14" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="I38" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="J38" s="14" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="I39" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="J39" s="14" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="I40" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="J40" s="14" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="I41" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="J41" s="14" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="I42" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="J42" s="14" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="I43" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="J43" s="14" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="I44" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="J44" s="17" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="I45" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="J45" s="14" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="I46" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="J46" s="14" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="I47" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="J47" s="14" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="I48" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="J48" s="14" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="I49" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="J49" s="14" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H50" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="I50" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="J50" s="14" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="I51" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="J51" s="14" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="I52" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="J52" s="14" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="E53" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H53" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="I53" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="J53" s="17" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H54" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="I54" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="J54" s="14" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H55" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="I55" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="J55" s="14" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H56" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="I56" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="J56" s="14" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H57" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="I57" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="J57" s="14" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="F28" s="7" t="s">
+      <c r="B58" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="G58" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G28" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="H28" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="I28" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="L28" s="1"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+      <c r="H58" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="I58" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="J58" s="14" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="F29" s="7" t="s">
+      <c r="B59" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="G59" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G29" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="I29" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="L29" s="1"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+      <c r="H59" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="I59" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="J59" s="14" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="F30" s="7" t="s">
+      <c r="B60" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="G60" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G30" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="I30" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="L30" s="1"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+      <c r="H60" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="I60" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="J60" s="14" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="F31" s="7" t="s">
+      <c r="B61" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="E61" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="G61" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G31" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="I31" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="L31" s="1"/>
-    </row>
-    <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="8" t="s">
+      <c r="H61" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="I61" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="J61" s="14" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="F32" s="8" t="s">
+      <c r="B62" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="E62" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="G62" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G32" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="H32" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="I32" s="17" t="s">
-        <v>161</v>
+      <c r="H62" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="I62" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="J62" s="17" t="s">
+        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -2689,10 +3484,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3C84647-4C82-4A68-B065-7EFCF89BE8E6}">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2702,13 +3497,14 @@
     <col min="3" max="3" width="26.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="24.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="25.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" style="13" customWidth="1"/>
     <col min="7" max="7" width="24.42578125" style="1" customWidth="1"/>
     <col min="8" max="8" width="27.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="24.42578125" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18"/>
       <c r="B1" s="4">
         <v>123456789</v>
@@ -2722,19 +3518,8 @@
       <c r="E1" s="4">
         <v>568439202</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="4">
-        <v>349587492</v>
-      </c>
-      <c r="H1" s="4">
-        <v>18765678</v>
-      </c>
-      <c r="I1" s="5">
-        <v>888888888</v>
-      </c>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -2750,21 +3535,9 @@
       <c r="E2" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -2780,21 +3553,9 @@
       <c r="E3" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>379</v>
-      </c>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -2810,21 +3571,9 @@
       <c r="E4" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>326</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>380</v>
-      </c>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
@@ -2840,21 +3589,9 @@
       <c r="E5" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>381</v>
-      </c>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
@@ -2870,21 +3607,9 @@
       <c r="E6" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>328</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>382</v>
-      </c>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
@@ -2900,21 +3625,9 @@
       <c r="E7" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>356</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>383</v>
-      </c>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -2930,21 +3643,9 @@
       <c r="E8" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>357</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>384</v>
-      </c>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
@@ -2960,21 +3661,9 @@
       <c r="E9" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>358</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>385</v>
-      </c>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
@@ -2990,43 +3679,25 @@
       <c r="E10" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>359</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>386</v>
-      </c>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>15</v>
       </c>
@@ -3042,21 +3713,9 @@
       <c r="E13" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>333</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>360</v>
-      </c>
-      <c r="I13" s="14" t="s">
-        <v>387</v>
-      </c>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>16</v>
       </c>
@@ -3072,21 +3731,9 @@
       <c r="E14" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>361</v>
-      </c>
-      <c r="I14" s="14" t="s">
-        <v>388</v>
-      </c>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>17</v>
       </c>
@@ -3102,21 +3749,9 @@
       <c r="E15" s="13" t="s">
         <v>308</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>362</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>389</v>
-      </c>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>18</v>
       </c>
@@ -3132,21 +3767,9 @@
       <c r="E16" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>363</v>
-      </c>
-      <c r="I16" s="14" t="s">
-        <v>390</v>
-      </c>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>19</v>
       </c>
@@ -3162,21 +3785,9 @@
       <c r="E17" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>364</v>
-      </c>
-      <c r="I17" s="14" t="s">
-        <v>391</v>
-      </c>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>20</v>
       </c>
@@ -3192,21 +3803,9 @@
       <c r="E18" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>338</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>365</v>
-      </c>
-      <c r="I18" s="14" t="s">
-        <v>392</v>
-      </c>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>21</v>
       </c>
@@ -3222,21 +3821,9 @@
       <c r="E19" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>339</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>366</v>
-      </c>
-      <c r="I19" s="14" t="s">
-        <v>393</v>
-      </c>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>22</v>
       </c>
@@ -3252,21 +3839,9 @@
       <c r="E20" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>367</v>
-      </c>
-      <c r="I20" s="14" t="s">
-        <v>394</v>
-      </c>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>23</v>
       </c>
@@ -3282,43 +3857,25 @@
       <c r="E21" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>341</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>368</v>
-      </c>
-      <c r="I21" s="14" t="s">
-        <v>395</v>
-      </c>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>24</v>
       </c>
@@ -3334,21 +3891,9 @@
       <c r="E24" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>342</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>369</v>
-      </c>
-      <c r="I24" s="14" t="s">
-        <v>396</v>
-      </c>
-      <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>25</v>
       </c>
@@ -3364,21 +3909,9 @@
       <c r="E25" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>343</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>370</v>
-      </c>
-      <c r="I25" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>26</v>
       </c>
@@ -3394,21 +3927,9 @@
       <c r="E26" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>344</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>371</v>
-      </c>
-      <c r="I26" s="14" t="s">
-        <v>398</v>
-      </c>
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>27</v>
       </c>
@@ -3424,21 +3945,9 @@
       <c r="E27" s="13" t="s">
         <v>318</v>
       </c>
-      <c r="F27" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>345</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>372</v>
-      </c>
-      <c r="I27" s="14" t="s">
-        <v>399</v>
-      </c>
-      <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>28</v>
       </c>
@@ -3454,21 +3963,9 @@
       <c r="E28" s="13" t="s">
         <v>319</v>
       </c>
-      <c r="F28" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="H28" s="13" t="s">
-        <v>373</v>
-      </c>
-      <c r="I28" s="14" t="s">
-        <v>400</v>
-      </c>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>29</v>
       </c>
@@ -3484,21 +3981,9 @@
       <c r="E29" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>374</v>
-      </c>
-      <c r="I29" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F29" s="7"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>30</v>
       </c>
@@ -3514,21 +3999,9 @@
       <c r="E30" s="13" t="s">
         <v>321</v>
       </c>
-      <c r="F30" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>375</v>
-      </c>
-      <c r="I30" s="14" t="s">
-        <v>402</v>
-      </c>
-      <c r="J30" s="2"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>31</v>
       </c>
@@ -3544,21 +4017,9 @@
       <c r="E31" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>376</v>
-      </c>
-      <c r="I31" s="14" t="s">
-        <v>403</v>
-      </c>
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F31" s="7"/>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>32</v>
       </c>
@@ -3574,19 +4035,7 @@
       <c r="E32" s="16" t="s">
         <v>323</v>
       </c>
-      <c r="F32" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G32" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="H32" s="16" t="s">
-        <v>377</v>
-      </c>
-      <c r="I32" s="17" t="s">
-        <v>404</v>
-      </c>
-      <c r="J32" s="2"/>
+      <c r="F32" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
